--- a/src/assets/template-excel/Template_Telecom.xlsx
+++ b/src/assets/template-excel/Template_Telecom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Projects/TVO/NCB/NCB_smart/src/assets/template-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <definedName name="list_status">'Status map'!$A$1:$A$40</definedName>
     <definedName name="status">'Status map'!$A$1:$A$42</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
   <si>
     <t>Awaiting to verify</t>
   </si>
@@ -286,15 +286,6 @@
     <t>900</t>
   </si>
   <si>
-    <t>Telecom Code</t>
-  </si>
-  <si>
-    <t>Telecome Name</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
@@ -311,6 +302,18 @@
   </si>
   <si>
     <t>Mobi</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
   </si>
 </sst>
 </file>
@@ -650,7 +653,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -668,30 +671,30 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -701,16 +704,16 @@
     </row>
     <row r="3" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
